--- a/biology/Microbiologie/Gélose_à_l'œuf/Gélose_à_l'œuf.xlsx
+++ b/biology/Microbiologie/Gélose_à_l'œuf/Gélose_à_l'œuf.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>G%C3%A9lose_%C3%A0_l%27%C5%93uf</t>
+          <t>Gélose_à_l'œuf</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'œuf peut être utilisé comme milieu de culture.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>G%C3%A9lose_%C3%A0_l%27%C5%93uf</t>
+          <t>Gélose_à_l'œuf</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Intérêt</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Ce milieu permet d'explorer l'activité lipolytique des micro-organismes :
 En microbiologie alimentaire : les micro-organismes ayant une activité lipolytique peuvent proliférer dans les aliments riches en lait et dérivés, viandes et être à l'origine d'altérations de ces aliments.
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>G%C3%A9lose_%C3%A0_l%27%C5%93uf</t>
+          <t>Gélose_à_l'œuf</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Principe</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Le jaune d'œuf contient :
 Des lécithines qui sont des phospholipides pouvant être hydrolysé par une lécithinase.
@@ -562,7 +578,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>G%C3%A9lose_%C3%A0_l%27%C5%93uf</t>
+          <t>Gélose_à_l'œuf</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -580,7 +596,9 @@
           <t>Composition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Une gélose ordinaire ou tripticase soja, additionné de jaune d'œuf dilué au 1/2 dans de l'eau distillée stérile, jusqu'à obtenir une concentration finale de 5 % (soit 2mL dans 20mL).
 </t>
@@ -593,7 +611,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>G%C3%A9lose_%C3%A0_l%27%C5%93uf</t>
+          <t>Gélose_à_l'œuf</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -611,7 +629,9 @@
           <t>Résultats</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>On ensemence la gélose en faisant une strie centrale épaisse.
 On observe deux aspects :
